--- a/public/db/members.xlsx
+++ b/public/db/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\react\wlab\public\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1588F8F4-D4D1-4B9C-BF39-474A126383DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F8B7AE-C033-4613-AD8F-490C9D0C2B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>index</t>
   </si>
@@ -261,12 +261,36 @@
   <si>
     <t>Metamaterials and Photonic Crystals; Plasmonics; Photodetectors; Light Scattering Simulation;  Resonant modes</t>
   </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>程仁杰</t>
+  </si>
+  <si>
+    <t>Electron Accelerator; Vacuum Electron Device</t>
+  </si>
+  <si>
+    <t>renjie_cheng@sutd.edu.sg</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Bích Huệ</t>
+  </si>
+  <si>
+    <t>Quantum plasmonics; Electron microscopy and spectroscopy; 2D materials</t>
+  </si>
+  <si>
+    <t>hue.do@u.nus.edu</t>
+  </si>
+  <si>
+    <t>wenjie_zhou@sutd.edu.sg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +308,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -337,7 +368,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,8 +657,8 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -799,7 +834,7 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -886,11 +921,11 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
       <c r="H8" t="s">
         <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -970,7 +1005,7 @@
         <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
@@ -981,8 +1016,14 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="G12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1004,8 +1045,14 @@
       <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
+      <c r="G13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">

--- a/public/db/members.xlsx
+++ b/public/db/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\react\wlab\public\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F8B7AE-C033-4613-AD8F-490C9D0C2B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471C9AF8-DBC7-4FC1-BCCF-C60ED32119C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>index</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Sirasit</t>
   </si>
   <si>
-    <t>Thai</t>
-  </si>
-  <si>
     <t>PhD</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>photovoltaics; PIC</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
     <t>ownlanguage</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>Juanfeng</t>
   </si>
   <si>
-    <t>Chinese</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
   </si>
   <si>
     <t>Quantum Plamonics &amp; Photonics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lei </t>
   </si>
   <si>
     <t>South China Argriculture University; South China Normal Nniversity</t>
@@ -190,12 +178,6 @@
     <t>Laha</t>
   </si>
   <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
     <t>Wang</t>
   </si>
   <si>
@@ -214,9 +196,6 @@
     <t>Free-electron radiation; Nanophotonics; Plasmonics</t>
   </si>
   <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
     <t>Reva</t>
   </si>
   <si>
@@ -241,15 +220,9 @@
     <t>Do</t>
   </si>
   <si>
-    <t>Thi Bich Hue</t>
-  </si>
-  <si>
     <t>Dr.</t>
   </si>
   <si>
-    <t>Quantum Physics; Optics; Photonics; Electrical Engineering</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -284,6 +257,45 @@
   </si>
   <si>
     <t>wenjie_zhou@sutd.edu.sg</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>周文捷</t>
+  </si>
+  <si>
+    <t>Quantum optics; Light matter interactions; Photonics and plasmonics;</t>
+  </si>
+  <si>
+    <t>Dong</t>
+  </si>
+  <si>
+    <t>Xuan</t>
+  </si>
+  <si>
+    <t>董璇</t>
+  </si>
+  <si>
+    <t>Nanophononics; Nanofabrication; Hybrid Nanoantenna</t>
+  </si>
+  <si>
+    <t>xuan_dong@mymail.sutd.edu.sg</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>vn</t>
   </si>
 </sst>
 </file>
@@ -654,11 +666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -680,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -695,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -704,16 +716,16 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
@@ -721,34 +733,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -762,25 +774,22 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -788,31 +797,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -820,31 +826,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -852,28 +858,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -881,25 +887,25 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -907,25 +913,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -933,19 +942,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -956,19 +965,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -979,22 +988,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1002,28 +1011,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1031,28 +1040,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1060,22 +1069,48 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" t="s">
         <v>65</v>
       </c>
-      <c r="K14" t="s">
-        <v>74</v>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
